--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3408.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3408.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.368646105832703</v>
+        <v>2.086084842681885</v>
       </c>
       <c r="B1">
-        <v>1.580908778590146</v>
+        <v>6.08387565612793</v>
       </c>
       <c r="C1">
-        <v>2.00078203512679</v>
+        <v>3.139637231826782</v>
       </c>
       <c r="D1">
-        <v>4.227113181319359</v>
+        <v>1.383564710617065</v>
       </c>
       <c r="E1">
-        <v>4.690051005620857</v>
+        <v>0.9713207483291626</v>
       </c>
     </row>
   </sheetData>
